--- a/prep_data/2025_totals_offense.xlsx
+++ b/prep_data/2025_totals_offense.xlsx
@@ -488,69 +488,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="D2" t="n">
-        <v>29.3</v>
+        <v>30.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1553</v>
+        <v>1894</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5</v>
+        <v>126.3</v>
       </c>
       <c r="G2" t="n">
-        <v>3581</v>
+        <v>4057</v>
       </c>
       <c r="H2" t="n">
-        <v>275.5</v>
+        <v>270.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5134</v>
+        <v>5951</v>
       </c>
       <c r="J2" t="n">
-        <v>394.9</v>
+        <v>396.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="D3" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="E3" t="n">
-        <v>2051</v>
+        <v>1782</v>
       </c>
       <c r="F3" t="n">
-        <v>157.8</v>
+        <v>118.8</v>
       </c>
       <c r="G3" t="n">
-        <v>2937</v>
+        <v>4115</v>
       </c>
       <c r="H3" t="n">
-        <v>225.9</v>
+        <v>274.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4988</v>
+        <v>5897</v>
       </c>
       <c r="J3" t="n">
-        <v>383.7</v>
+        <v>393.1</v>
       </c>
     </row>
     <row r="4">
@@ -560,28 +560,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="D4" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1766</v>
+        <v>1851</v>
       </c>
       <c r="F4" t="n">
-        <v>135.8</v>
+        <v>123.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3157</v>
+        <v>3829</v>
       </c>
       <c r="H4" t="n">
-        <v>242.8</v>
+        <v>255.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4923</v>
+        <v>5680</v>
       </c>
       <c r="J4" t="n">
         <v>378.7</v>
@@ -590,35 +590,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="D5" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="E5" t="n">
-        <v>1611</v>
+        <v>2383</v>
       </c>
       <c r="F5" t="n">
-        <v>123.9</v>
+        <v>158.9</v>
       </c>
       <c r="G5" t="n">
-        <v>3240</v>
+        <v>3213</v>
       </c>
       <c r="H5" t="n">
-        <v>249.2</v>
+        <v>214.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4851</v>
+        <v>5596</v>
       </c>
       <c r="J5" t="n">
-        <v>373.2</v>
+        <v>373.1</v>
       </c>
     </row>
     <row r="6">
@@ -628,167 +628,167 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="D6" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1984</v>
+        <v>2276</v>
       </c>
       <c r="F6" t="n">
-        <v>152.6</v>
+        <v>151.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2822</v>
+        <v>3291</v>
       </c>
       <c r="H6" t="n">
-        <v>217.1</v>
+        <v>219.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4806</v>
+        <v>5567</v>
       </c>
       <c r="J6" t="n">
-        <v>369.7</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9</v>
+        <v>27.3</v>
       </c>
       <c r="E7" t="n">
-        <v>1702</v>
+        <v>1793</v>
       </c>
       <c r="F7" t="n">
-        <v>130.9</v>
+        <v>119.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3088</v>
+        <v>3759</v>
       </c>
       <c r="H7" t="n">
-        <v>237.5</v>
+        <v>250.6</v>
       </c>
       <c r="I7" t="n">
-        <v>4790</v>
+        <v>5552</v>
       </c>
       <c r="J7" t="n">
-        <v>368.5</v>
+        <v>370.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>315</v>
+        <v>443</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2</v>
+        <v>29.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1546</v>
+        <v>1753</v>
       </c>
       <c r="F8" t="n">
-        <v>118.9</v>
+        <v>116.9</v>
       </c>
       <c r="G8" t="n">
-        <v>3226</v>
+        <v>3571</v>
       </c>
       <c r="H8" t="n">
-        <v>248.2</v>
+        <v>238.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4772</v>
+        <v>5324</v>
       </c>
       <c r="J8" t="n">
-        <v>367.1</v>
+        <v>354.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>27.9</v>
       </c>
       <c r="E9" t="n">
-        <v>1468</v>
+        <v>1862</v>
       </c>
       <c r="F9" t="n">
-        <v>112.9</v>
+        <v>124.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3246</v>
+        <v>3460</v>
       </c>
       <c r="H9" t="n">
-        <v>249.7</v>
+        <v>230.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4714</v>
+        <v>5322</v>
       </c>
       <c r="J9" t="n">
-        <v>362.6</v>
+        <v>354.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D10" t="n">
-        <v>29.8</v>
+        <v>26.1</v>
       </c>
       <c r="E10" t="n">
-        <v>1532</v>
+        <v>1564</v>
       </c>
       <c r="F10" t="n">
-        <v>117.8</v>
+        <v>104.3</v>
       </c>
       <c r="G10" t="n">
-        <v>3063</v>
+        <v>3741</v>
       </c>
       <c r="H10" t="n">
-        <v>235.6</v>
+        <v>249.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4595</v>
+        <v>5305</v>
       </c>
       <c r="J10" t="n">
-        <v>353.5</v>
+        <v>353.7</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +798,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="D11" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="E11" t="n">
-        <v>1584</v>
+        <v>1774</v>
       </c>
       <c r="F11" t="n">
-        <v>121.8</v>
+        <v>118.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2862</v>
+        <v>3508</v>
       </c>
       <c r="H11" t="n">
-        <v>220.2</v>
+        <v>233.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4446</v>
+        <v>5282</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>352.1</v>
       </c>
     </row>
     <row r="12">
@@ -832,337 +832,337 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E12" t="n">
-        <v>1634</v>
+        <v>1880</v>
       </c>
       <c r="F12" t="n">
-        <v>125.7</v>
+        <v>125.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2802</v>
+        <v>3303</v>
       </c>
       <c r="H12" t="n">
-        <v>215.5</v>
+        <v>220.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4436</v>
+        <v>5183</v>
       </c>
       <c r="J12" t="n">
-        <v>341.2</v>
+        <v>345.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="D13" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="E13" t="n">
-        <v>1281</v>
+        <v>1830</v>
       </c>
       <c r="F13" t="n">
-        <v>98.5</v>
+        <v>122</v>
       </c>
       <c r="G13" t="n">
-        <v>3154</v>
+        <v>3340</v>
       </c>
       <c r="H13" t="n">
-        <v>242.6</v>
+        <v>222.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4435</v>
+        <v>5170</v>
       </c>
       <c r="J13" t="n">
-        <v>341.2</v>
+        <v>344.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8</v>
+        <v>22.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1523</v>
+        <v>1646</v>
       </c>
       <c r="F14" t="n">
-        <v>117.2</v>
+        <v>109.7</v>
       </c>
       <c r="G14" t="n">
-        <v>2901</v>
+        <v>3498</v>
       </c>
       <c r="H14" t="n">
-        <v>223.2</v>
+        <v>233.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4424</v>
+        <v>5144</v>
       </c>
       <c r="J14" t="n">
-        <v>340.3</v>
+        <v>342.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D15" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="E15" t="n">
-        <v>1605</v>
+        <v>1870</v>
       </c>
       <c r="F15" t="n">
-        <v>123.5</v>
+        <v>124.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2816</v>
+        <v>3238</v>
       </c>
       <c r="H15" t="n">
-        <v>216.6</v>
+        <v>215.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4421</v>
+        <v>5108</v>
       </c>
       <c r="J15" t="n">
-        <v>340.1</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>282</v>
+        <v>410</v>
       </c>
       <c r="D16" t="n">
-        <v>21.7</v>
+        <v>27.3</v>
       </c>
       <c r="E16" t="n">
-        <v>1258</v>
+        <v>1771</v>
       </c>
       <c r="F16" t="n">
-        <v>96.8</v>
+        <v>118.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3103</v>
+        <v>3275</v>
       </c>
       <c r="H16" t="n">
-        <v>238.7</v>
+        <v>218.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4361</v>
+        <v>5046</v>
       </c>
       <c r="J16" t="n">
-        <v>335.5</v>
+        <v>336.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="D17" t="n">
-        <v>19.4</v>
+        <v>21.4</v>
       </c>
       <c r="E17" t="n">
-        <v>1607</v>
+        <v>1462</v>
       </c>
       <c r="F17" t="n">
-        <v>123.6</v>
+        <v>97.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2683</v>
+        <v>3526</v>
       </c>
       <c r="H17" t="n">
-        <v>206.4</v>
+        <v>235.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4290</v>
+        <v>4988</v>
       </c>
       <c r="J17" t="n">
-        <v>330</v>
+        <v>332.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D18" t="n">
-        <v>25.2</v>
+        <v>20.9</v>
       </c>
       <c r="E18" t="n">
-        <v>1582</v>
+        <v>1879</v>
       </c>
       <c r="F18" t="n">
-        <v>121.7</v>
+        <v>125.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2680</v>
+        <v>3067</v>
       </c>
       <c r="H18" t="n">
-        <v>206.2</v>
+        <v>204.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4262</v>
+        <v>4946</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="D19" t="n">
-        <v>20.2</v>
+        <v>23.9</v>
       </c>
       <c r="E19" t="n">
-        <v>1774</v>
+        <v>2218</v>
       </c>
       <c r="F19" t="n">
-        <v>136.5</v>
+        <v>147.9</v>
       </c>
       <c r="G19" t="n">
-        <v>2483</v>
+        <v>2656</v>
       </c>
       <c r="H19" t="n">
-        <v>191</v>
+        <v>177.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4257</v>
+        <v>4874</v>
       </c>
       <c r="J19" t="n">
-        <v>327.5</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="D20" t="n">
-        <v>23.9</v>
+        <v>23.1</v>
       </c>
       <c r="E20" t="n">
-        <v>1858</v>
+        <v>1600</v>
       </c>
       <c r="F20" t="n">
-        <v>142.9</v>
+        <v>106.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2369</v>
+        <v>3258</v>
       </c>
       <c r="H20" t="n">
-        <v>182.2</v>
+        <v>217.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4227</v>
+        <v>4858</v>
       </c>
       <c r="J20" t="n">
-        <v>325.2</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D21" t="n">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
       <c r="E21" t="n">
-        <v>1374</v>
+        <v>2009</v>
       </c>
       <c r="F21" t="n">
-        <v>105.7</v>
+        <v>133.9</v>
       </c>
       <c r="G21" t="n">
-        <v>2815</v>
+        <v>2808</v>
       </c>
       <c r="H21" t="n">
-        <v>216.5</v>
+        <v>187.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4189</v>
+        <v>4817</v>
       </c>
       <c r="J21" t="n">
-        <v>322.2</v>
+        <v>321.1</v>
       </c>
     </row>
     <row r="22">
@@ -1172,167 +1172,167 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="D22" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="E22" t="n">
-        <v>1124</v>
+        <v>1329</v>
       </c>
       <c r="F22" t="n">
-        <v>86.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>2974</v>
+        <v>3474</v>
       </c>
       <c r="H22" t="n">
-        <v>228.8</v>
+        <v>231.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4098</v>
+        <v>4803</v>
       </c>
       <c r="J22" t="n">
-        <v>315.2</v>
+        <v>320.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E23" t="n">
-        <v>1497</v>
+        <v>1826</v>
       </c>
       <c r="F23" t="n">
-        <v>115.2</v>
+        <v>121.7</v>
       </c>
       <c r="G23" t="n">
-        <v>2598</v>
+        <v>2968</v>
       </c>
       <c r="H23" t="n">
-        <v>199.8</v>
+        <v>197.9</v>
       </c>
       <c r="I23" t="n">
-        <v>4095</v>
+        <v>4794</v>
       </c>
       <c r="J23" t="n">
-        <v>315</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>23.1</v>
       </c>
       <c r="E24" t="n">
-        <v>1631</v>
+        <v>1754</v>
       </c>
       <c r="F24" t="n">
-        <v>125.5</v>
+        <v>116.9</v>
       </c>
       <c r="G24" t="n">
-        <v>2414</v>
+        <v>2975</v>
       </c>
       <c r="H24" t="n">
-        <v>185.7</v>
+        <v>198.3</v>
       </c>
       <c r="I24" t="n">
-        <v>4045</v>
+        <v>4729</v>
       </c>
       <c r="J24" t="n">
-        <v>311.2</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D25" t="n">
-        <v>22.2</v>
+        <v>21.1</v>
       </c>
       <c r="E25" t="n">
-        <v>1436</v>
+        <v>1836</v>
       </c>
       <c r="F25" t="n">
-        <v>110.5</v>
+        <v>122.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2586</v>
+        <v>2798</v>
       </c>
       <c r="H25" t="n">
-        <v>198.9</v>
+        <v>186.5</v>
       </c>
       <c r="I25" t="n">
-        <v>4022</v>
+        <v>4634</v>
       </c>
       <c r="J25" t="n">
-        <v>309.4</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D26" t="n">
-        <v>21.6</v>
+        <v>19.1</v>
       </c>
       <c r="E26" t="n">
-        <v>1644</v>
+        <v>1859</v>
       </c>
       <c r="F26" t="n">
-        <v>126.5</v>
+        <v>123.9</v>
       </c>
       <c r="G26" t="n">
-        <v>2316</v>
+        <v>2742</v>
       </c>
       <c r="H26" t="n">
-        <v>178.2</v>
+        <v>182.8</v>
       </c>
       <c r="I26" t="n">
-        <v>3960</v>
+        <v>4601</v>
       </c>
       <c r="J26" t="n">
-        <v>304.6</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="27">
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="D27" t="n">
-        <v>15.8</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>1227</v>
+        <v>1392</v>
       </c>
       <c r="F27" t="n">
-        <v>94.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="G27" t="n">
-        <v>2592</v>
+        <v>3176</v>
       </c>
       <c r="H27" t="n">
-        <v>199.4</v>
+        <v>211.7</v>
       </c>
       <c r="I27" t="n">
-        <v>3819</v>
+        <v>4568</v>
       </c>
       <c r="J27" t="n">
-        <v>293.8</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="28">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="D28" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="E28" t="n">
-        <v>1160</v>
+        <v>1525</v>
       </c>
       <c r="F28" t="n">
-        <v>89.2</v>
+        <v>101.7</v>
       </c>
       <c r="G28" t="n">
-        <v>2538</v>
+        <v>2990</v>
       </c>
       <c r="H28" t="n">
-        <v>195.2</v>
+        <v>199.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3698</v>
+        <v>4515</v>
       </c>
       <c r="J28" t="n">
-        <v>284.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="D29" t="n">
-        <v>19.6</v>
+        <v>20.3</v>
       </c>
       <c r="E29" t="n">
-        <v>1355</v>
+        <v>1546</v>
       </c>
       <c r="F29" t="n">
-        <v>104.2</v>
+        <v>103.1</v>
       </c>
       <c r="G29" t="n">
-        <v>2229</v>
+        <v>2605</v>
       </c>
       <c r="H29" t="n">
-        <v>171.5</v>
+        <v>173.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3584</v>
+        <v>4151</v>
       </c>
       <c r="J29" t="n">
-        <v>275.7</v>
+        <v>276.7</v>
       </c>
     </row>
     <row r="30">
@@ -1444,31 +1444,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D30" t="n">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="E30" t="n">
-        <v>1669</v>
+        <v>1863</v>
       </c>
       <c r="F30" t="n">
-        <v>128.4</v>
+        <v>124.2</v>
       </c>
       <c r="G30" t="n">
-        <v>1904</v>
+        <v>2189</v>
       </c>
       <c r="H30" t="n">
-        <v>146.5</v>
+        <v>145.9</v>
       </c>
       <c r="I30" t="n">
-        <v>3573</v>
+        <v>4052</v>
       </c>
       <c r="J30" t="n">
-        <v>274.8</v>
+        <v>270.1</v>
       </c>
     </row>
     <row r="31">
@@ -1478,99 +1478,99 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D31" t="n">
-        <v>17.2</v>
+        <v>16.4</v>
       </c>
       <c r="E31" t="n">
-        <v>1243</v>
+        <v>1453</v>
       </c>
       <c r="F31" t="n">
-        <v>95.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>2265</v>
+        <v>2541</v>
       </c>
       <c r="H31" t="n">
-        <v>174.2</v>
+        <v>169.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3508</v>
+        <v>3994</v>
       </c>
       <c r="J31" t="n">
-        <v>269.8</v>
+        <v>266.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="D32" t="n">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="E32" t="n">
-        <v>945</v>
+        <v>1404</v>
       </c>
       <c r="F32" t="n">
-        <v>72.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>2398</v>
+        <v>2479</v>
       </c>
       <c r="H32" t="n">
-        <v>184.5</v>
+        <v>165.3</v>
       </c>
       <c r="I32" t="n">
-        <v>3343</v>
+        <v>3883</v>
       </c>
       <c r="J32" t="n">
-        <v>257.2</v>
+        <v>258.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="E33" t="n">
-        <v>1104</v>
+        <v>1136</v>
       </c>
       <c r="F33" t="n">
-        <v>84.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="G33" t="n">
-        <v>2097</v>
+        <v>2597</v>
       </c>
       <c r="H33" t="n">
-        <v>161.3</v>
+        <v>173.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3201</v>
+        <v>3733</v>
       </c>
       <c r="J33" t="n">
-        <v>246.2</v>
+        <v>248.9</v>
       </c>
     </row>
   </sheetData>
